--- a/data/05_input/zm.cd18a.xlsx
+++ b/data/05_input/zm.cd18a.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Containers/com.panic.transmit.mas/Data/Library/Caches/Transmit/7277DF3A-3A29-4FAF-A2FF-1683E2F96575/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/barn/data/08_sra_list_x/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Containers/com.panic.transmit.mas/Data/Library/Caches/Transmit/ABE09811-67CB-4D13-8F03-3CF6E8BDA479/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/barn/data/05_input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66A95A8D-187A-F54C-BB52-4606CB1ECF95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72876F5A-6D08-094D-B178-D2122F84734D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11380" yWindow="7160" windowWidth="18020" windowHeight="11620" xr2:uid="{67760308-83C7-244E-9309-67C566F6D356}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="74">
   <si>
     <t>SampleID</t>
   </si>
@@ -190,16 +190,79 @@
   </si>
   <si>
     <t>ARF34</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>r0</t>
+  </si>
+  <si>
+    <t>r1</t>
+  </si>
+  <si>
+    <t>r2</t>
+  </si>
+  <si>
+    <t>s01</t>
+  </si>
+  <si>
+    <t>s02</t>
+  </si>
+  <si>
+    <t>s03</t>
+  </si>
+  <si>
+    <t>s04</t>
+  </si>
+  <si>
+    <t>s05</t>
+  </si>
+  <si>
+    <t>s06</t>
+  </si>
+  <si>
+    <t>s07</t>
+  </si>
+  <si>
+    <t>s08</t>
+  </si>
+  <si>
+    <t>s09</t>
+  </si>
+  <si>
+    <t>s10</t>
+  </si>
+  <si>
+    <t>s11</t>
+  </si>
+  <si>
+    <t>s12</t>
+  </si>
+  <si>
+    <t>s13</t>
+  </si>
+  <si>
+    <t>s14</t>
+  </si>
+  <si>
+    <t>s15</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -541,11 +604,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04FFD014-A071-C843-B0EC-9B05A4E70C0E}">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1" sqref="E1:G1048576"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -553,7 +616,7 @@
     <col min="2" max="2" width="7.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -587,10 +650,19 @@
       <c r="K1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L1" t="s">
+        <v>56</v>
+      </c>
+      <c r="M1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="D2" t="s">
         <v>37</v>
@@ -604,8 +676,8 @@
       <c r="G2" t="s">
         <v>23</v>
       </c>
-      <c r="I2" t="b">
-        <v>0</v>
+      <c r="I2" t="s">
+        <v>55</v>
       </c>
       <c r="J2">
         <v>40746798</v>
@@ -613,10 +685,13 @@
       <c r="K2">
         <v>75</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="D3" t="s">
         <v>36</v>
@@ -630,8 +705,8 @@
       <c r="G3" t="s">
         <v>23</v>
       </c>
-      <c r="I3" t="b">
-        <v>0</v>
+      <c r="I3" t="s">
+        <v>55</v>
       </c>
       <c r="J3">
         <v>28551131</v>
@@ -639,10 +714,13 @@
       <c r="K3">
         <v>76</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="D4" t="s">
         <v>35</v>
@@ -656,8 +734,8 @@
       <c r="G4" t="s">
         <v>23</v>
       </c>
-      <c r="I4" t="b">
-        <v>0</v>
+      <c r="I4" t="s">
+        <v>55</v>
       </c>
       <c r="J4">
         <v>28371502</v>
@@ -665,10 +743,13 @@
       <c r="K4">
         <v>76</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="D5" t="s">
         <v>34</v>
@@ -682,8 +763,8 @@
       <c r="G5" t="s">
         <v>23</v>
       </c>
-      <c r="I5" t="b">
-        <v>0</v>
+      <c r="I5" t="s">
+        <v>55</v>
       </c>
       <c r="J5">
         <v>40294472</v>
@@ -691,10 +772,13 @@
       <c r="K5">
         <v>75</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="D6" t="s">
         <v>33</v>
@@ -708,8 +792,8 @@
       <c r="G6" t="s">
         <v>23</v>
       </c>
-      <c r="I6" t="b">
-        <v>0</v>
+      <c r="I6" t="s">
+        <v>55</v>
       </c>
       <c r="J6">
         <v>48659869</v>
@@ -717,10 +801,13 @@
       <c r="K6">
         <v>75</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="D7" t="s">
         <v>32</v>
@@ -734,8 +821,8 @@
       <c r="G7" t="s">
         <v>23</v>
       </c>
-      <c r="I7" t="b">
-        <v>0</v>
+      <c r="I7" t="s">
+        <v>55</v>
       </c>
       <c r="J7">
         <v>20233070</v>
@@ -743,10 +830,13 @@
       <c r="K7">
         <v>76</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="D8" t="s">
         <v>31</v>
@@ -760,8 +850,8 @@
       <c r="G8" t="s">
         <v>23</v>
       </c>
-      <c r="I8" t="b">
-        <v>0</v>
+      <c r="I8" t="s">
+        <v>55</v>
       </c>
       <c r="J8">
         <v>25473798</v>
@@ -769,10 +859,13 @@
       <c r="K8">
         <v>76</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="D9" t="s">
         <v>30</v>
@@ -786,8 +879,8 @@
       <c r="G9" t="s">
         <v>23</v>
       </c>
-      <c r="I9" t="b">
-        <v>0</v>
+      <c r="I9" t="s">
+        <v>55</v>
       </c>
       <c r="J9">
         <v>18121991</v>
@@ -795,10 +888,13 @@
       <c r="K9">
         <v>76</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="D10" t="s">
         <v>29</v>
@@ -812,8 +908,8 @@
       <c r="G10" t="s">
         <v>23</v>
       </c>
-      <c r="I10" t="b">
-        <v>0</v>
+      <c r="I10" t="s">
+        <v>55</v>
       </c>
       <c r="J10">
         <v>24930195</v>
@@ -821,10 +917,13 @@
       <c r="K10">
         <v>76</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="D11" t="s">
         <v>28</v>
@@ -838,8 +937,8 @@
       <c r="G11" t="s">
         <v>23</v>
       </c>
-      <c r="I11" t="b">
-        <v>0</v>
+      <c r="I11" t="s">
+        <v>55</v>
       </c>
       <c r="J11">
         <v>14159612</v>
@@ -847,10 +946,13 @@
       <c r="K11">
         <v>75</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="D12" t="s">
         <v>27</v>
@@ -864,8 +966,8 @@
       <c r="G12" t="s">
         <v>23</v>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
+      <c r="I12" t="s">
+        <v>55</v>
       </c>
       <c r="J12">
         <v>14410671</v>
@@ -873,10 +975,13 @@
       <c r="K12">
         <v>75</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="D13" t="s">
         <v>26</v>
@@ -890,8 +995,8 @@
       <c r="G13" t="s">
         <v>23</v>
       </c>
-      <c r="I13" t="b">
-        <v>0</v>
+      <c r="I13" t="s">
+        <v>55</v>
       </c>
       <c r="J13">
         <v>18838361</v>
@@ -899,10 +1004,13 @@
       <c r="K13">
         <v>75</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="D14" t="s">
         <v>25</v>
@@ -916,8 +1024,8 @@
       <c r="G14" t="s">
         <v>23</v>
       </c>
-      <c r="I14" t="b">
-        <v>0</v>
+      <c r="I14" t="s">
+        <v>55</v>
       </c>
       <c r="J14">
         <v>13082237</v>
@@ -925,10 +1033,13 @@
       <c r="K14">
         <v>75</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="D15" t="s">
         <v>24</v>
@@ -942,8 +1053,8 @@
       <c r="G15" t="s">
         <v>23</v>
       </c>
-      <c r="I15" t="b">
-        <v>0</v>
+      <c r="I15" t="s">
+        <v>55</v>
       </c>
       <c r="J15">
         <v>12949888</v>
@@ -951,10 +1062,13 @@
       <c r="K15">
         <v>75</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="D16" t="s">
         <v>23</v>
@@ -962,20 +1076,24 @@
       <c r="E16" t="s">
         <v>23</v>
       </c>
-      <c r="I16" t="b">
-        <v>0</v>
+      <c r="I16" t="s">
+        <v>55</v>
       </c>
       <c r="J16">
         <v>27640102</v>
       </c>
       <c r="K16">
         <v>75</v>
+      </c>
+      <c r="L16" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K16">
     <sortCondition ref="A2:A16"/>
   </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>